--- a/data/trans_orig/Q15_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Estudios-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.0679126726117492</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09997173515738213</v>
+        <v>0.09997173515738214</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07199773342759219</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04297257802389505</v>
+        <v>0.04274513563008894</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07620565608678137</v>
+        <v>0.07629351595714402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04954253310349502</v>
+        <v>0.05055447610643998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07157133021186805</v>
+        <v>0.06882337086118426</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05562840555997786</v>
+        <v>0.05513234725473118</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09376661944300405</v>
+        <v>0.09270188103817878</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07803887310353859</v>
+        <v>0.07834809214193536</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1382216007104561</v>
+        <v>0.1365668376936464</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05438220941672391</v>
+        <v>0.05429640968517958</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09440253185163666</v>
+        <v>0.09209700400707181</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07139203653492329</v>
+        <v>0.07149875938626211</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1178122724328419</v>
+        <v>0.1186308061783318</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07487655225257318</v>
+        <v>0.07351535727987897</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1315296525995057</v>
+        <v>0.1293149426531238</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08993553106590467</v>
+        <v>0.0891915577005168</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1562431383907326</v>
+        <v>0.1548117946684881</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09884841420436755</v>
+        <v>0.101676546222063</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1563045301143737</v>
+        <v>0.1571594033316072</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1371804557973625</v>
+        <v>0.1380215181306682</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2119548547273668</v>
+        <v>0.2107028848708371</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08216768629019998</v>
+        <v>0.08225809757913664</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1335455180743961</v>
+        <v>0.1312479825850706</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.109054319252096</v>
+        <v>0.1113787811359334</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1731965010177423</v>
+        <v>0.1738922502204071</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.05109290886035944</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0631939881719778</v>
+        <v>0.06319398817197777</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.07384962523000926</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07993697734397666</v>
+        <v>0.08155914495561786</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08949402753495188</v>
+        <v>0.0885609234298612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05301398956559809</v>
+        <v>0.05347862845166471</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05882416216441205</v>
+        <v>0.05800501085303456</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03782049820235049</v>
+        <v>0.03803376727322205</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05883623629353596</v>
+        <v>0.059300913169313</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03976598951534686</v>
+        <v>0.0396125705321063</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05156249582896827</v>
+        <v>0.05137679113728815</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06393908239631538</v>
+        <v>0.06385121206360063</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07852788147488221</v>
+        <v>0.0781154242047217</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04911012869276683</v>
+        <v>0.04958737271698059</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05787942576249642</v>
+        <v>0.05812491630052966</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1154278270406554</v>
+        <v>0.1173948363269925</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1273634574720038</v>
+        <v>0.1293340719140097</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07854078144439264</v>
+        <v>0.07877146093267468</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09980201697003162</v>
+        <v>0.1002890654974693</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0618548234881659</v>
+        <v>0.06040866533164343</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08849383310197814</v>
+        <v>0.08778593677482605</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06493749730035517</v>
+        <v>0.06547368203000334</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07912688273332462</v>
+        <v>0.07851308831255538</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08541590670583944</v>
+        <v>0.08571226757624001</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1041298986848858</v>
+        <v>0.1031656659518575</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06784862794896657</v>
+        <v>0.06796316561802027</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08144918901084038</v>
+        <v>0.08226877137677184</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.05933200375838805</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08452880124965567</v>
+        <v>0.08452880124965566</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05156189546030957</v>
@@ -965,7 +965,7 @@
         <v>0.05789552621908397</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0692352337746573</v>
+        <v>0.06923523377465728</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05542743657044216</v>
+        <v>0.0529600454852175</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03531177865250899</v>
+        <v>0.03479767234995708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04063244022085159</v>
+        <v>0.04148885689870779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05133472113416747</v>
+        <v>0.05169574165839017</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03251348251328231</v>
+        <v>0.03306609448848682</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03904922236822172</v>
+        <v>0.04205195040843684</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03912219268006278</v>
+        <v>0.03693523942295302</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04077625422201935</v>
+        <v>0.04126331393610351</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04966817069071424</v>
+        <v>0.04877076991600101</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04461869979570534</v>
+        <v>0.04345849665975719</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04457967602566656</v>
+        <v>0.04461422282216607</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05002987070531212</v>
+        <v>0.05140719548948488</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1029222816675563</v>
+        <v>0.1044176575410376</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08747248672897517</v>
+        <v>0.08374924363803023</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08455425861912846</v>
+        <v>0.08648782969666453</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.192981242578894</v>
+        <v>0.2076445991208813</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07884261694166511</v>
+        <v>0.07876433966095039</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09250413876741993</v>
+        <v>0.09527474614225984</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08182603527799867</v>
+        <v>0.08155499535710545</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0749334786219783</v>
+        <v>0.07709308699264641</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08266858961235379</v>
+        <v>0.08279500865612058</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07889168917556293</v>
+        <v>0.08049970969067057</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07575613385556312</v>
+        <v>0.07543203367377078</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1168812318368922</v>
+        <v>0.1202470455296509</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.06653868016546695</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08499488411670351</v>
+        <v>0.0849948841167035</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06954744365537144</v>
@@ -1101,7 +1101,7 @@
         <v>0.06547473624945647</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08198076230973146</v>
+        <v>0.08198076230973148</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07007910331815577</v>
+        <v>0.07123257618210006</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08446863340987529</v>
+        <v>0.08345697707964872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05600489171599856</v>
+        <v>0.05507636691704273</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06487893673097379</v>
+        <v>0.06494630892223249</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04928599906799205</v>
+        <v>0.05025321117447924</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07656940588569697</v>
+        <v>0.07632837190548397</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05686191226784578</v>
+        <v>0.05654905832049999</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0751454998319627</v>
+        <v>0.07484477721147217</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06229208910341892</v>
+        <v>0.06257433446085586</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08380431080512302</v>
+        <v>0.08363103098739022</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05779224936049384</v>
+        <v>0.05790563571552186</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07252741931649329</v>
+        <v>0.07244526950966877</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09382906346804241</v>
+        <v>0.09366406017161281</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1128683442864779</v>
+        <v>0.1122908530158816</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07579023308309679</v>
+        <v>0.07629203826163743</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.101113176437356</v>
+        <v>0.1012367659723402</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07059957792608648</v>
+        <v>0.07077287568279908</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1047978394624966</v>
+        <v>0.1037033512124336</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08132615365752145</v>
+        <v>0.07944707330242289</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09832608533019047</v>
+        <v>0.09792980331221358</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07848928439473649</v>
+        <v>0.07804130924295556</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1022941681682461</v>
+        <v>0.1028241745841547</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07274917731324965</v>
+        <v>0.07334268515074883</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09324658261594888</v>
+        <v>0.09574492256579741</v>
       </c>
     </row>
     <row r="16">
